--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s0_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s0_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>891.7569358808361</v>
+        <v>116.2438725227562</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.17693588083531</v>
+        <v>40.24387252275617</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.752483473055587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.752483473055587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>445.8500000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>408.73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -835,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.361415491259855</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16.81550631967969</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.37739353073907</v>
+        <v>24.81299701176106</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.7338617375427</v>
       </c>
     </row>
     <row r="7">
@@ -955,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.56439651897804</v>
+        <v>28.16166055474291</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,76 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.8600000000006</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.83000000000064</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.34000000000066</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.96000000000065</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>159.1200000000014</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>158.6950000000014</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>154.3250000000014</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>163.3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>160.9100000000014</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>208.0599999999993</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>189.4349999999993</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>206.7149999999993</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>193.8399999999993</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203.2699999999993</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.91999999999997</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>229.35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>238.9250000000012</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>240.6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>250.7050000000012</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>245.3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>229.35</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>238.9250000000012</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>240.6</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>250.7050000000012</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>245.3</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>208.0599999999993</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.4349999999993</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>206.7149999999993</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>193.8399999999993</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.2699999999993</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>29.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>38.92500000000123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>50.70500000000123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>45.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1644,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.059999999999309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1666,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>6.714999999999309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1688,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.269999999999309</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1801,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1812,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1834,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1955,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,94 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
